--- a/data/trans_camb/P1_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>5.013334565344017</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.730422463812879</v>
+        <v>7.730422463812876</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.475914450629151</v>
@@ -664,7 +664,7 @@
         <v>9.871737989697863</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>8.683010441088337</v>
+        <v>8.683010441088335</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9895330732138404</v>
+        <v>-0.714045770550663</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.616559200154624</v>
+        <v>8.615735462092996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.01300698082381</v>
+        <v>5.061383806682437</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.339803370381466</v>
+        <v>-1.324247509410147</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5181119866262545</v>
+        <v>-0.2796675400804132</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.173416500022715</v>
+        <v>3.164360043504796</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2709024349354035</v>
+        <v>0.5171419181949982</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.997278627735675</v>
+        <v>6.172434268531747</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.825468302635278</v>
+        <v>5.434389750532787</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.285835232682965</v>
+        <v>7.038642061073315</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.4455920489127</v>
+        <v>18.4970298428131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.43344227205762</v>
+        <v>13.34265945513048</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.907921623205455</v>
+        <v>9.160652131979376</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.948758301725968</v>
+        <v>9.925171099067583</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.61261790470126</v>
+        <v>11.59041054248859</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.937251986987385</v>
+        <v>6.757936342821836</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.50415800459528</v>
+        <v>13.46860795475934</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>11.91730271736853</v>
+        <v>11.79587197995953</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.538792970631221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8308037752565698</v>
+        <v>0.8308037752565695</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.4106142916523526</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1110579294088471</v>
+        <v>-0.08190389530293837</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.8518521054085404</v>
+        <v>0.8748186240797187</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4881084630613997</v>
+        <v>0.4935932484890325</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.130955755486031</v>
+        <v>-0.1355472788588925</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.03730463145046206</v>
+        <v>-0.05142410094363937</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2471226718709971</v>
+        <v>0.2201294825679612</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0346855790797794</v>
+        <v>0.04098157848845981</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5769340471243073</v>
+        <v>0.6068694365021969</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5584396158713881</v>
+        <v>0.5144611878722042</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.181226884745255</v>
+        <v>1.129460090117461</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.0435575952404</v>
+        <v>3.039437994765695</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.262576644888129</v>
+        <v>2.233452033187409</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.217933347920295</v>
+        <v>1.323409434742423</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.444079564079454</v>
+        <v>1.377211094506713</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.676484298566828</v>
+        <v>1.710022555815363</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.024385403112793</v>
+        <v>0.9537843069690424</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.896995711567758</v>
+        <v>1.905385198117076</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.676997206575302</v>
+        <v>1.700778768762632</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-2.238449997559047</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.084560047728467</v>
+        <v>6.084560047728464</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.3974955990628096</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.512459741996766</v>
+        <v>-8.345170395263017</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.027570775125648</v>
+        <v>-6.894071257540219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4635506336095797</v>
+        <v>1.071079126065235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.473296892163571</v>
+        <v>-3.294433888438944</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8628965126796401</v>
+        <v>0.810247487675227</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.280922459569102</v>
+        <v>3.407301808751196</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.76677236109856</v>
+        <v>-4.558327754633785</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.740534112293929</v>
+        <v>-1.988728075504369</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.592938556808443</v>
+        <v>3.1771235280728</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.421502949155169</v>
+        <v>0.7329891956832101</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.034199459348051</v>
+        <v>2.450259320066475</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.46913927032532</v>
+        <v>11.09622929500371</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.326324274437112</v>
+        <v>4.370796029290707</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.972373417972086</v>
+        <v>9.692854305850537</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.55351331585324</v>
+        <v>10.72388765702483</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.572528069273265</v>
+        <v>1.634442995967731</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.159201387986421</v>
+        <v>4.806465935888992</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>10.02441738155436</v>
+        <v>9.828754122465586</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1821150214217361</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4950254795247799</v>
+        <v>0.4950254795247797</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.05394290010406553</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5566182501524241</v>
+        <v>-0.5672155238659514</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4748628978358105</v>
+        <v>-0.4624370866273705</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03277686171780106</v>
+        <v>0.05357978061740757</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3734713425470614</v>
+        <v>-0.3609446071995822</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08427265145363041</v>
+        <v>0.08771700816306263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.340558574969251</v>
+        <v>0.3249219089671713</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.415872147143293</v>
+        <v>-0.386609004240369</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1550044799806687</v>
+        <v>-0.1710665428973147</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2971369403984255</v>
+        <v>0.27263729765111</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1642317103726254</v>
+        <v>0.07593630347710112</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3369909879900952</v>
+        <v>0.2945578813796461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.121174834103088</v>
+        <v>1.137289655629857</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8013294028331133</v>
+        <v>0.7377541975559598</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.780782379461535</v>
+        <v>1.738587212029</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.084435730091655</v>
+        <v>1.965383567304429</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1888440436136468</v>
+        <v>0.2120067004641689</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6367113627280692</v>
+        <v>0.5926454869302052</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.276782993521266</v>
+        <v>1.231020321561444</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6070935634912346</v>
+        <v>-0.4595888108571562</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.784400360929734</v>
+        <v>1.79146046566294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.526822676625457</v>
+        <v>8.435091075245278</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6235776651800828</v>
+        <v>-0.6704655704303274</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.088104593552439</v>
+        <v>3.254310935955401</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.440089552080023</v>
+        <v>7.784375766102198</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3705638925799991</v>
+        <v>0.5743201311992985</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.422450110458895</v>
+        <v>3.035099490501998</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>9.690123217461057</v>
+        <v>9.913543937411557</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.926910434479845</v>
+        <v>5.7723233463196</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.338648586633731</v>
+        <v>8.680209467059328</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.06881345019212</v>
+        <v>16.59043412809098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.08525929248343</v>
+        <v>9.649572839926115</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.48247575575493</v>
+        <v>17.23304477371193</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>20.49413279296081</v>
+        <v>19.82325073982961</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.863411419563069</v>
+        <v>5.883731808677766</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.424166356765207</v>
+        <v>9.204209657757819</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>16.57213195609145</v>
+        <v>16.519464317525</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1192874401107507</v>
+        <v>-0.09193738721378945</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2451097119120889</v>
+        <v>0.2019907271262185</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.149206331041733</v>
+        <v>1.158110303927843</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1092736804655628</v>
+        <v>-0.10303950522449</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2864856850861569</v>
+        <v>0.2928579603951547</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7303791440518246</v>
+        <v>0.7341759510885477</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04492536000310816</v>
+        <v>0.0645605475722604</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4575671609121655</v>
+        <v>0.4418716720017771</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.341070703986022</v>
+        <v>1.365654522956829</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.356972790384416</v>
+        <v>1.277472860197545</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.97138690148597</v>
+        <v>2.067968121910644</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.909742218150076</v>
+        <v>4.002256577846292</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.501068885130417</v>
+        <v>2.276101311871034</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.614629779858872</v>
+        <v>4.413386742517432</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.092850715934978</v>
+        <v>5.196432144445999</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.250414983931391</v>
+        <v>1.262330208759558</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.030411885367054</v>
+        <v>2.011607798323366</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.545345657408529</v>
+        <v>3.596446621632112</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.739447177854649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12.74555269676296</v>
+        <v>12.74555269676297</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.796144198171869</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.145130684210772</v>
+        <v>-0.1266367829378987</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.405298870680173</v>
+        <v>1.46367285177967</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10.10819937306898</v>
+        <v>9.994705478406233</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.292583632472125</v>
+        <v>-4.349237381773635</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.115668620416731</v>
+        <v>2.53300680705648</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.340431759126997</v>
+        <v>4.44297939298486</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.113363467761528</v>
+        <v>-1.28301719030669</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.690831615800244</v>
+        <v>2.797345393114786</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.357292150870203</v>
+        <v>8.393192414340749</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.237566860668129</v>
+        <v>4.433972957824094</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.06671098874931</v>
+        <v>6.494199512247698</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.49565391212055</v>
+        <v>15.67975418468932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8901651552201761</v>
+        <v>0.844391851399964</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.60892604716428</v>
+        <v>8.985325928323693</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.767451663379035</v>
+        <v>9.769613257694903</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.17749990639811</v>
+        <v>2.115356727517221</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.298293473188032</v>
+        <v>6.555789201870938</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.28264100816429</v>
+        <v>12.28385566686179</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.558627773714486</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.904030031475981</v>
+        <v>1.904030031475982</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.2493098009247054</v>
@@ -1411,7 +1411,7 @@
         <v>0.6680809329161085</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.50309588271549</v>
+        <v>1.503095882715491</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.01863655139986551</v>
+        <v>-0.01429259151266439</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1759030094809814</v>
+        <v>0.1869960026383177</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.266709885554641</v>
+        <v>1.285053863997207</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5164888358320929</v>
+        <v>-0.4989834260881656</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.36182978808452</v>
+        <v>0.2827819580451276</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4742926625835368</v>
+        <v>0.5030865511238544</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1472157596532126</v>
+        <v>-0.1752695756959789</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3515647320161086</v>
+        <v>0.3501384503019876</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.070289777703716</v>
+        <v>1.088115088015963</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.751190154586067</v>
+        <v>0.811099449462783</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.063036368537341</v>
+        <v>1.156963209178898</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.731420359881423</v>
+        <v>2.800331337210679</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1574473108424724</v>
+        <v>0.1677405690570201</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.4637725508336</v>
+        <v>1.534847742833861</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.700444682560394</v>
+        <v>1.699458964540976</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.363198939222412</v>
+        <v>0.3369718381203628</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.03238023937798</v>
+        <v>1.076025418908362</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.01165988788492</v>
+        <v>2.071173114966908</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.84031736511432</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14.69109442018529</v>
+        <v>14.69109442018528</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>2.199986662980388</v>
@@ -1511,7 +1511,7 @@
         <v>3.112188323542806</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>11.93250511857743</v>
+        <v>11.93250511857742</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.470065772477711</v>
@@ -1520,7 +1520,7 @@
         <v>4.036368950725953</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>13.09675241477714</v>
+        <v>13.09675241477713</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.533762461160336</v>
+        <v>-6.487778659214717</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3797032371111897</v>
+        <v>-0.07187339303065812</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.614641361298276</v>
+        <v>9.732352258339912</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.237815980029005</v>
+        <v>-0.8783694109060759</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.2686332381254543</v>
+        <v>-0.3879362082063753</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.078547700105517</v>
+        <v>8.630204315767667</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.099736468896985</v>
+        <v>-2.32557067047663</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.463152925071608</v>
+        <v>1.460770432415939</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>10.24423522038725</v>
+        <v>9.988771651134689</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.569118557892855</v>
+        <v>1.677478109749972</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.531011006854632</v>
+        <v>8.915678760098146</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20.53443689142079</v>
+        <v>20.19495141166741</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.348582053555769</v>
+        <v>5.536170534575485</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.409123322156616</v>
+        <v>6.398512033552647</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>15.23854401223689</v>
+        <v>14.94659448060935</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.100001208335772</v>
+        <v>2.897107221898063</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.564146441357596</v>
+        <v>6.732839642655454</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>15.90938166342385</v>
+        <v>15.86765772893104</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4780808750575054</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.451047678521124</v>
+        <v>1.451047678521123</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2638924782876132</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5074520290113106</v>
+        <v>-0.4977880538931446</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.02850121345382038</v>
+        <v>-0.0159067647727173</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7149658207990902</v>
+        <v>0.7057336180283342</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1248472166229801</v>
+        <v>-0.09375845168341666</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02451875783360323</v>
+        <v>-0.03943074144976692</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.877013819482797</v>
+        <v>0.8351367911881115</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2013287656618472</v>
+        <v>-0.2116211277650828</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1444469639685849</v>
+        <v>0.1290803461480892</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.9793856758165231</v>
+        <v>0.9398805859740992</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2166540541550771</v>
+        <v>0.2298231730030381</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.239541771948251</v>
+        <v>1.154443632996243</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.713686870500981</v>
+        <v>2.627474692062925</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7914866929078149</v>
+        <v>0.8061539238750025</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.9830060081246593</v>
+        <v>0.958861704037787</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.330860536276628</v>
+        <v>2.322376868696032</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4032534887309041</v>
+        <v>0.3673324475043602</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8722068571651129</v>
+        <v>0.9073427751326922</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.122045032242436</v>
+        <v>2.111272410104886</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.578805070769348</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.578697224049492</v>
+        <v>9.578697224049495</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.552317252302705</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.408893958560959</v>
+        <v>-2.196788697210838</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>2.236688959757995</v>
+        <v>2.60291458946375</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.065377535637788</v>
+        <v>-1.182704378879589</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7132546441915186</v>
+        <v>-0.7526209064769983</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.6975505071790455</v>
+        <v>0.7432980675775748</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>6.74772884950989</v>
+        <v>6.600424916978688</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.6835051609205598</v>
+        <v>-0.6696135146109912</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.613992464384294</v>
+        <v>1.646339518844665</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>5.076316918032837</v>
+        <v>5.053652192291609</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.154258917683976</v>
+        <v>3.290118422460637</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>10.15484741970361</v>
+        <v>10.46434871571084</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.551278693559591</v>
+        <v>6.897844160969102</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4.48733156763993</v>
+        <v>4.560375320584788</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.406498234841059</v>
+        <v>6.416974703292504</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>12.54534100853554</v>
+        <v>12.67630627863911</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>3.648805265916062</v>
+        <v>3.781310434070253</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.430067626700264</v>
+        <v>6.335546063248326</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>10.09039266562326</v>
+        <v>10.18858364797841</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3426114452222181</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9170019697586247</v>
+        <v>0.9170019697586249</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1745846610177273</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6711406131910299</v>
+        <v>-0.6544611120937263</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4337390518551951</v>
+        <v>0.597601175550788</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4304239172846756</v>
+        <v>-0.4748911259114491</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.06572433028129102</v>
+        <v>-0.06700020743227231</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.05719055403544678</v>
+        <v>0.06029759464574817</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.5617476534638497</v>
+        <v>0.5679292581011216</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.06993381837131141</v>
+        <v>-0.073577791429488</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1431525565111181</v>
+        <v>0.1656026444967213</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.5064491792403822</v>
+        <v>0.5109617391913981</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.85487377513392</v>
+        <v>3.035828420997853</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>8.152670453940116</v>
+        <v>8.710937135048921</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.932105164451747</v>
+        <v>4.765032697561465</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4651005141024943</v>
+        <v>0.5005118070264446</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6845178140026452</v>
+        <v>0.6735177562743868</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.319063123603389</v>
+        <v>1.392827672582461</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4553651107309188</v>
+        <v>0.4948942460115011</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7867611129539923</v>
+        <v>0.800742325688877</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.291808109163291</v>
+        <v>1.260609862251686</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.3414153463694957</v>
+        <v>-0.4391541509095288</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>3.720209573588989</v>
+        <v>3.602066277542162</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>9.738817797802291</v>
+        <v>9.65367706678054</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.2831292536114253</v>
+        <v>-0.1492310678936163</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>2.900888042408313</v>
+        <v>2.896642954978432</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>7.445711315620768</v>
+        <v>7.556160352010561</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.1823971817112528</v>
+        <v>0.2104804761694173</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>3.761098484521658</v>
+        <v>3.618237339434207</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>8.905233467203143</v>
+        <v>8.91093108203173</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.412497468241209</v>
+        <v>2.317445138603954</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>6.671257188140514</v>
+        <v>6.600846061473824</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.08241848413046</v>
+        <v>13.08326305927781</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2.661529273055026</v>
+        <v>2.657724298602503</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.984995553052606</v>
+        <v>5.900399267659933</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.27802198815883</v>
+        <v>10.34559597634738</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.149964005534166</v>
+        <v>2.101401272872153</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.934068474339346</v>
+        <v>5.818591047976068</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.19766452825683</v>
+        <v>11.08884486433286</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.6015293132839981</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>1.255286531615011</v>
+        <v>1.25528653161501</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.04358381337672976</v>
+        <v>-0.05566967054490154</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4614978805037295</v>
+        <v>0.4518800811432445</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.228193913280063</v>
+        <v>1.200763885094428</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.03154065408668079</v>
+        <v>-0.01765066618640799</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.3007966085144015</v>
+        <v>0.3072066344107687</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.775482713480525</v>
+        <v>0.7812563795178584</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.02068621646113405</v>
+        <v>0.0261371931242397</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.436560687368588</v>
+        <v>0.4336809272253355</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.032188406434314</v>
+        <v>1.04372097948131</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3578759746518272</v>
+        <v>0.3467261506392904</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9972880980031807</v>
+        <v>0.9883803969197165</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.954785429328192</v>
+        <v>1.96016315738547</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.3325005789378776</v>
+        <v>0.3211243820931761</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7497303647210116</v>
+        <v>0.7235090992887014</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.281817059664799</v>
+        <v>1.303203636856215</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2804257523841346</v>
+        <v>0.2748614701185333</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7817657050732699</v>
+        <v>0.7622896223219578</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.470939981558662</v>
+        <v>1.466137964782196</v>
       </c>
     </row>
     <row r="46">
